--- a/要件定義書など/詳細設計.xlsx
+++ b/要件定義書など/詳細設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cntn-jr/Desktop/KBC/2022年度前期/システム開発/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cntn-jr/Desktop/kbc-portal-site/要件定義書など/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE7C47-05EE-8F45-8053-19732BF7F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3138CD-5F53-EE43-B439-AC3EE86291F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{98ABF350-3B9A-604D-B47C-265C261FE3D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{98ABF350-3B9A-604D-B47C-265C261FE3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="1" r:id="rId1"/>
@@ -6270,7 +6270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F92700-86FA-EE44-A57B-99BE367BCF09}">
   <dimension ref="E1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -7268,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E9A21F-2DB5-774A-BC51-858324AFD4D8}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7278,7 +7278,7 @@
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="39.140625" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/要件定義書など/詳細設計.xlsx
+++ b/要件定義書など/詳細設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cntn-jr/Desktop/kbc-portal-site/要件定義書など/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3138CD-5F53-EE43-B439-AC3EE86291F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ABA700-69EE-0443-8EFA-26706A9051EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{98ABF350-3B9A-604D-B47C-265C261FE3D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{98ABF350-3B9A-604D-B47C-265C261FE3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="1" r:id="rId1"/>
@@ -575,13 +575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年度切り替え処理</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ネンドキリカエショリ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/switch-semester</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1796,6 +1789,16 @@
     <t>そのクラスのスケジュールを返す</t>
     <rPh sb="13" eb="14">
       <t xml:space="preserve">カエス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度切り替え画面</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ネンドキリカエショリ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガメン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6270,7 +6273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F92700-86FA-EE44-A57B-99BE367BCF09}">
   <dimension ref="E1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -6496,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21BAF4A-D65D-544B-983C-2D4D242F34D0}">
   <dimension ref="C1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6525,7 +6528,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="21" thickBot="1">
@@ -6536,80 +6539,80 @@
         <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="21" thickBot="1">
       <c r="H4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="21" thickBot="1">
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="3:12">
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="21" thickBot="1">
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="21" thickBot="1">
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="21" thickBot="1">
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="J9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="21" thickBot="1">
@@ -6622,7 +6625,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="3:12">
@@ -6631,10 +6634,10 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="21" thickBot="1">
@@ -6643,26 +6646,26 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="3:12">
       <c r="J14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="21" thickBot="1">
       <c r="J15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="3:12">
@@ -6671,10 +6674,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="21" thickBot="1">
@@ -6683,10 +6686,10 @@
       </c>
       <c r="F17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="21" thickBot="1">
@@ -6695,41 +6698,41 @@
       </c>
       <c r="F18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="21" thickBot="1">
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="21" thickBot="1">
@@ -6738,13 +6741,13 @@
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="21" thickBot="1">
@@ -6753,27 +6756,27 @@
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="21" thickBot="1">
       <c r="G23" s="12"/>
       <c r="H23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="21" thickBot="1">
       <c r="F24" s="1"/>
       <c r="G24" s="12"/>
       <c r="H24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -6782,41 +6785,41 @@
       <c r="G25" s="1"/>
       <c r="H25" s="13"/>
       <c r="J25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="21" thickBot="1">
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="J26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="21" thickBot="1">
@@ -6824,14 +6827,14 @@
         <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1"/>
       <c r="H28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>41</v>
@@ -6842,41 +6845,41 @@
         <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1"/>
       <c r="H29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="21" thickBot="1">
       <c r="C30" s="1"/>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="21" thickBot="1"/>
     <row r="32" spans="3:12" ht="21" thickBot="1">
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="21" thickBot="1">
       <c r="C33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1"/>
       <c r="J33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="3:10">
@@ -6884,121 +6887,121 @@
         <v>19</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="21" thickBot="1">
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="21" thickBot="1">
       <c r="E36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="21" thickBot="1"/>
     <row r="38" spans="3:10" ht="21" thickBot="1">
       <c r="J38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="21" thickBot="1">
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="E40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="21" thickBot="1">
       <c r="E41" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="42" spans="3:10">
       <c r="E42" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="21" thickBot="1">
       <c r="E43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="21" thickBot="1">
       <c r="E44" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="21" thickBot="1"/>
     <row r="47" spans="3:10">
       <c r="E47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="E48" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="21" thickBot="1">
       <c r="E51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7012,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34D457-2BB6-0147-8F2C-7EB839773956}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="67" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7036,7 +7039,7 @@
         <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1">
@@ -7044,7 +7047,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1"/>
@@ -7055,13 +7058,13 @@
     </row>
     <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
@@ -7069,13 +7072,13 @@
     </row>
     <row r="9" spans="1:10" ht="21" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7083,7 +7086,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" thickBot="1">
@@ -7091,58 +7094,58 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" thickBot="1">
       <c r="F13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" thickBot="1">
@@ -7150,91 +7153,91 @@
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" thickBot="1">
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="F19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" thickBot="1">
       <c r="F20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" thickBot="1">
       <c r="C24" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" thickBot="1">
       <c r="C25" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" thickBot="1"/>
     <row r="27" spans="1:8">
       <c r="F27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7244,17 +7247,17 @@
     </row>
     <row r="29" spans="1:8">
       <c r="F29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="F30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" thickBot="1">
       <c r="F31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7268,7 +7271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E9A21F-2DB5-774A-BC51-858324AFD4D8}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -7285,43 +7288,43 @@
     <row r="1" spans="2:11" ht="21" thickBot="1"/>
     <row r="2" spans="2:11" ht="21" thickTop="1">
       <c r="B2" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="16"/>
       <c r="F2" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="22"/>
       <c r="J2" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="18"/>
       <c r="F3" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="24"/>
       <c r="J3" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="18"/>
       <c r="F4" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="24"/>
       <c r="J4" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K4" s="24"/>
     </row>
@@ -7329,282 +7332,282 @@
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="F5" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>199</v>
-      </c>
       <c r="J5" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="2:11" ht="21" thickTop="1">
       <c r="J6" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="2:11" ht="21" thickBot="1">
       <c r="J7" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="21" thickTop="1">
       <c r="B8" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="16"/>
       <c r="F8" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="2:11" ht="21" thickBot="1">
       <c r="B9" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="18"/>
       <c r="F9" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="18"/>
       <c r="F10" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="24"/>
       <c r="J10" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="18"/>
       <c r="F11" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="24"/>
       <c r="J11" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="F12" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="F13" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>220</v>
-      </c>
       <c r="J13" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:11" ht="21" thickBot="1">
       <c r="B14" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>225</v>
-      </c>
       <c r="J14" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="2:11" ht="22" thickTop="1" thickBot="1">
       <c r="F15" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>205</v>
-      </c>
       <c r="J15" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="21" thickBot="1">
       <c r="J16" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="21" thickBot="1">
       <c r="B17" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="21" thickBot="1">
       <c r="B18" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="24"/>
       <c r="F18" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="24"/>
       <c r="F19" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G19" s="24"/>
       <c r="J19" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11" ht="21" thickBot="1">
       <c r="B20" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="24"/>
       <c r="F20" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="26"/>
       <c r="J20" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="J21" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:11" ht="21" thickBot="1">
       <c r="B22" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="J22" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="21" thickBot="1">
       <c r="B23" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>194</v>
-      </c>
       <c r="F23" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" s="22"/>
       <c r="J23" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:11" ht="21" thickBot="1">
       <c r="F24" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="24"/>
       <c r="J24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="F25" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:11">
       <c r="F26" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:11">
       <c r="F27" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:11">
       <c r="F28" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="21" thickBot="1">
       <c r="F29" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
